--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_22_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-235406.6145281647</v>
+        <v>-237870.6779718704</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.493767343</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>192.3975352466069</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>64.37330435041258</v>
+        <v>62.81564405672412</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,16 +707,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>233.7198486821422</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>37.59617708813238</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>85.7878994545929</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -899,7 +899,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>25.7372294663699</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>81.97591349914259</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,13 +1054,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>28.33530928504397</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,19 +1102,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>175.4646268373439</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>356.3460194809278</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,16 +1142,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>297.9986308222602</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1294,19 +1294,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>124.2292170629837</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>148.679670002807</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1421,7 +1421,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="12">
@@ -1537,16 +1537,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,13 +1576,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>80.10107535865899</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,19 +1765,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>90.64674755991192</v>
+        <v>47.84205650381972</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2014,13 +2014,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>19.91555826189058</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>52.10645541514074</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2242,7 +2242,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2293,16 +2293,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>113.6427030833194</v>
+        <v>251.2117044543522</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890381</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>4.019807611472247</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,13 +2533,13 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>44.30292280757614</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>41.33703994142957</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>145.2857567969026</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>80.08971311158706</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>115.4764219077142</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3427,7 +3427,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>1.799772605716168</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3436,13 +3436,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3676,7 +3676,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3797,7 +3797,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701373</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3913,7 +3913,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428251</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3958,7 +3958,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>229.2938944146487</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4138,7 +4138,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
         <v>122.1493151545295</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1609.330275668609</v>
+        <v>1224.320019723111</v>
       </c>
       <c r="C2" t="n">
-        <v>1240.367758728197</v>
+        <v>1224.320019723111</v>
       </c>
       <c r="D2" t="n">
-        <v>882.1020601214466</v>
+        <v>1224.320019723111</v>
       </c>
       <c r="E2" t="n">
-        <v>882.1020601214466</v>
+        <v>838.5317671248663</v>
       </c>
       <c r="F2" t="n">
-        <v>471.116155331839</v>
+        <v>427.5458623352587</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4355,25 +4355,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V2" t="n">
-        <v>2725.704021175615</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W2" t="n">
-        <v>2372.9353659055</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X2" t="n">
-        <v>1999.46960764442</v>
+        <v>1808.800296392465</v>
       </c>
       <c r="Y2" t="n">
-        <v>1609.330275668609</v>
+        <v>1418.660964416653</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686075</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>846.071687106475</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080129</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986303</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,25 +4462,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>680.3679798527295</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="C4" t="n">
-        <v>511.4317969248226</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="D4" t="n">
-        <v>361.3151575124869</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="E4" t="n">
-        <v>213.4020639300938</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1889.318611635834</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1889.318611635834</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1889.318611635834</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1600.215744761477</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1600.215744761477</v>
+        <v>1048.254280474488</v>
       </c>
       <c r="W4" t="n">
-        <v>1310.798574724517</v>
+        <v>758.8371104375277</v>
       </c>
       <c r="X4" t="n">
-        <v>1082.809023826499</v>
+        <v>530.8475595395104</v>
       </c>
       <c r="Y4" t="n">
-        <v>862.0164446829692</v>
+        <v>310.0549803959803</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2012.898941548396</v>
+        <v>2012.898941548398</v>
       </c>
       <c r="C5" t="n">
-        <v>1643.936424607984</v>
+        <v>1643.936424607987</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1285.670726001236</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>899.882473402992</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>488.8965686133844</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4562,55 +4562,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794322</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794322</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524208</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X5" t="n">
-        <v>2403.038273524208</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="Y5" t="n">
-        <v>2012.898941548396</v>
+        <v>2012.898941548398</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>561.0764108006838</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="C7" t="n">
-        <v>392.1402278727769</v>
+        <v>608.7574741064773</v>
       </c>
       <c r="D7" t="n">
-        <v>242.0235884604412</v>
+        <v>458.6408346941415</v>
       </c>
       <c r="E7" t="n">
-        <v>242.0235884604412</v>
+        <v>310.7277411117484</v>
       </c>
       <c r="F7" t="n">
-        <v>95.13364096253082</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="G7" t="n">
-        <v>95.13364096253082</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H7" t="n">
-        <v>95.13364096253082</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1735.608663915319</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U7" t="n">
-        <v>1735.608663915319</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V7" t="n">
-        <v>1480.924175709432</v>
+        <v>1239.188068978264</v>
       </c>
       <c r="W7" t="n">
-        <v>1191.507005672471</v>
+        <v>1239.188068978264</v>
       </c>
       <c r="X7" t="n">
-        <v>963.5174547744537</v>
+        <v>1011.198518080247</v>
       </c>
       <c r="Y7" t="n">
-        <v>742.7248756309235</v>
+        <v>790.405938936717</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1491.569348694472</v>
+        <v>1528.069587875905</v>
       </c>
       <c r="C8" t="n">
-        <v>1122.606831754061</v>
+        <v>1168.124113652745</v>
       </c>
       <c r="D8" t="n">
-        <v>764.3411331473101</v>
+        <v>809.8584150459947</v>
       </c>
       <c r="E8" t="n">
-        <v>378.5528805490658</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.5429342656</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W8" t="n">
-        <v>2641.774278995485</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="X8" t="n">
-        <v>2268.308520734406</v>
+        <v>2304.808759915838</v>
       </c>
       <c r="Y8" t="n">
-        <v>1878.169188758594</v>
+        <v>1914.669427940026</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>973.5548741173881</v>
+        <v>549.3683227675136</v>
       </c>
       <c r="C10" t="n">
-        <v>804.6186911894812</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="D10" t="n">
-        <v>654.5020517771454</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="E10" t="n">
-        <v>506.5889581947523</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="F10" t="n">
-        <v>359.6990106968419</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G10" t="n">
-        <v>191.9961740715609</v>
+        <v>212.7293032143257</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1495.596721821527</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1206.49385494717</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>951.8093667412835</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>951.8093667412835</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>951.8093667412835</v>
       </c>
       <c r="Y10" t="n">
-        <v>1155.203338947628</v>
+        <v>731.0167875977534</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5057,7 +5057,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5075,13 +5075,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5115,25 +5115,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>727.9786782557277</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>559.0424953278208</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>408.925855915485</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>261.0127623330919</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5224,25 +5224,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>1130.419722229497</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>909.6271430859674</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,16 +5352,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>119.290296770379</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M15" t="n">
         <v>716.6687843969308</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1021.293348608258</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
         <v>317.6151975578602</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1720.348534373476</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1430.931364336515</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1202.941813438498</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>1202.941813438498</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5495,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,7 +5507,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5531,34 +5531,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5586,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>409.1360811687896</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>904.4616873845483</v>
       </c>
       <c r="M18" t="n">
-        <v>1520.445529061503</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N18" t="n">
-        <v>2148.04349261611</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876688</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597619</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>261.8464821474262</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E19" t="n">
-        <v>113.9333885650331</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="F19" t="n">
-        <v>113.9333885650331</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>228.5361496476752</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5829,22 +5829,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,10 +5884,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D22" t="n">
         <v>484.8112968429803</v>
@@ -5941,19 +5941,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="V22" t="n">
-        <v>1573.595244679636</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W22" t="n">
-        <v>1284.178074642675</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X22" t="n">
-        <v>1056.188523744657</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="23">
@@ -5975,19 +5975,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6078,16 +6078,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>951.777212765616</v>
+        <v>576.8388927589092</v>
       </c>
       <c r="C25" t="n">
-        <v>782.8410298377091</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D25" t="n">
-        <v>632.7243904253734</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2442.902671851501</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2260.047837506405</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2040.446372529346</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1751.371145873544</v>
       </c>
       <c r="V25" t="n">
-        <v>1643.635426776346</v>
+        <v>1496.686657667657</v>
       </c>
       <c r="W25" t="n">
-        <v>1354.218256739386</v>
+        <v>1207.269487630696</v>
       </c>
       <c r="X25" t="n">
-        <v>1354.218256739386</v>
+        <v>979.2799367326791</v>
       </c>
       <c r="Y25" t="n">
-        <v>1133.425677595856</v>
+        <v>758.4873575891489</v>
       </c>
     </row>
     <row r="26">
@@ -6203,43 +6203,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6248,25 +6248,25 @@
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6297,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6361,73 +6361,73 @@
         <v>653.7474797708871</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="29">
@@ -6443,13 +6443,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,7 +6473,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6540,19 +6540,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.6461798836013</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C31" t="n">
-        <v>565.7099969556945</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138411</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,16 +6731,16 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6774,28 +6774,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7014,19 +7014,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7075,19 +7075,19 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7163,28 +7163,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969308</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7363,19 +7363,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168618</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111726</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.61155333239</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014782</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355941</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068014</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852259</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,16 +7482,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
         <v>1072.713683962606</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400721</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270452</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X43" t="n">
-        <v>916.294644713842</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703119</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,28 +7643,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7728,7 +7728,7 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
         <v>1072.713683962606</v>
@@ -7804,25 +7804,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954154</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311327</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>190.3363064168737</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>346.5484213030409</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>166.3497438692351</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23425,16 +23425,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,13 +23464,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>114.1584408891671</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>145.6085800303782</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>76.60007353871592</v>
+        <v>119.4047645948098</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23899,16 +23899,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>145.421048022933</v>
       </c>
       <c r="G19" t="n">
-        <v>145.6085800303782</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462278</v>
+        <v>88.18825743108314</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24181,10 +24181,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>138.4949402405086</v>
+        <v>0.9259388694757718</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>62.35543909864944</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,13 +24421,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>207.8347205162519</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>72.11969353038569</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>68.5257599066253</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>65.54986409393035</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>146.8157004124962</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25324,13 +25324,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25564,7 +25564,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25801,10 +25801,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194134</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25846,7 +25846,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26320,13 +26320,13 @@
         <v>307890.6636991061</v>
       </c>
       <c r="E2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="F2" t="n">
         <v>302679.9748837521</v>
       </c>
       <c r="G2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.974883752</v>
       </c>
       <c r="H2" t="n">
         <v>302679.9748837522</v>
@@ -26335,13 +26335,13 @@
         <v>302679.9748837522</v>
       </c>
       <c r="J2" t="n">
+        <v>302679.9748837521</v>
+      </c>
+      <c r="K2" t="n">
+        <v>302679.9748837523</v>
+      </c>
+      <c r="L2" t="n">
         <v>302679.9748837522</v>
-      </c>
-      <c r="K2" t="n">
-        <v>302679.9748837522</v>
-      </c>
-      <c r="L2" t="n">
-        <v>302679.9748837524</v>
       </c>
       <c r="M2" t="n">
         <v>302679.9748837522</v>
@@ -26350,7 +26350,7 @@
         <v>302679.9748837522</v>
       </c>
       <c r="O2" t="n">
-        <v>302679.9748837524</v>
+        <v>302679.9748837522</v>
       </c>
       <c r="P2" t="n">
         <v>307890.663699106</v>
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>3.359841684869025e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972777</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.080258466070518e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.7179936316</v>
+        <v>19427.71799363177</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>42917.9974906467</v>
+        <v>42917.99749064672</v>
       </c>
       <c r="C4" t="n">
-        <v>93403.78684820644</v>
+        <v>93403.78684820633</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820633</v>
+        <v>93403.78684820631</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26442,19 +26442,19 @@
         <v>14216.75207685505</v>
       </c>
       <c r="K4" t="n">
-        <v>14216.75207685507</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="L4" t="n">
+        <v>14216.75207685501</v>
+      </c>
+      <c r="M4" t="n">
         <v>14216.75207685505</v>
-      </c>
-      <c r="M4" t="n">
-        <v>14216.75207685506</v>
       </c>
       <c r="N4" t="n">
         <v>14216.75207685505</v>
       </c>
       <c r="O4" t="n">
-        <v>14216.75207685495</v>
+        <v>14216.75207685505</v>
       </c>
       <c r="P4" t="n">
         <v>22207.61133994851</v>
@@ -26506,7 +26506,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="O5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="P5" t="n">
         <v>103164.1158539154</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1204875.717176734</v>
+        <v>-1205096.848490709</v>
       </c>
       <c r="C6" t="n">
-        <v>106552.9362895068</v>
+        <v>106552.9362895065</v>
       </c>
       <c r="D6" t="n">
-        <v>106552.9362895062</v>
+        <v>106552.9362895065</v>
       </c>
       <c r="E6" t="n">
-        <v>-138071.7688243652</v>
+        <v>-138106.5067498006</v>
       </c>
       <c r="F6" t="n">
-        <v>187340.6929829899</v>
+        <v>187305.9550575542</v>
       </c>
       <c r="G6" t="n">
-        <v>187340.69298299</v>
+        <v>187305.9550575541</v>
       </c>
       <c r="H6" t="n">
-        <v>187340.6929829901</v>
+        <v>187305.9550575544</v>
       </c>
       <c r="I6" t="n">
-        <v>187340.6929829901</v>
+        <v>187305.9550575543</v>
       </c>
       <c r="J6" t="n">
-        <v>-30190.50941428739</v>
+        <v>-30225.24733972347</v>
       </c>
       <c r="K6" t="n">
-        <v>187340.6929829901</v>
+        <v>187305.9550575544</v>
       </c>
       <c r="L6" t="n">
-        <v>187340.6929829901</v>
+        <v>187305.9550575546</v>
       </c>
       <c r="M6" t="n">
-        <v>102285.6650474781</v>
+        <v>102250.9271220426</v>
       </c>
       <c r="N6" t="n">
-        <v>187340.6929829901</v>
+        <v>187305.9550575543</v>
       </c>
       <c r="O6" t="n">
-        <v>187340.69298299</v>
+        <v>187305.9550575544</v>
       </c>
       <c r="P6" t="n">
-        <v>163091.2185116105</v>
+        <v>163091.2185116104</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022922</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26811,7 +26811,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26826,7 +26826,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483754</v>
@@ -26981,7 +26981,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26996,7 +26996,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.401455402293</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>348.1060815967293</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,13 +27430,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>94.03240978799275</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>51.33597558191495</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>328.945812154313</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,7 +27628,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>328.9458121543108</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>68.01711112479416</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>76.6730164864841</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>8.926872290079757</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,16 +27862,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>108.8774149194513</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,10 +27901,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -27913,7 +27913,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28014,19 +28014,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>20.5257978513371</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>70.86927927336222</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="12">
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28731,13 +28731,13 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>-1.759237014864811e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31835,10 +31835,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
@@ -31853,10 +31853,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32072,19 +32072,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>162.5000833330458</v>
+        <v>616.5397119226058</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32315,7 +32315,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>456.3459017226598</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32327,10 +32327,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>551.7051287319853</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -32549,25 +32549,25 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32725,7 +32725,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
         <v>593.8732233669223</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
-        <v>195.7502366106279</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,31 +33251,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33287,13 +33287,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33442,7 +33442,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,22 +33503,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>277.4567226539314</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33734,10 +33734,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33968,7 +33968,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33977,22 +33977,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>277.4567226539314</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
@@ -34211,19 +34211,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565758</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P43" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669205</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,10 +34436,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
@@ -34448,19 +34448,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565758</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34472,13 +34472,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P46" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35483,10 +35483,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>337.2977496678996</v>
@@ -35501,10 +35501,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35720,19 +35720,19 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>23.94570355317166</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35975,10 +35975,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>409.1088842875408</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>318.5044627483008</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
-        <v>61.77582919629761</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>25.73094315394657</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,22 +36908,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,22 +37151,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>138.9023428740572</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,22 +37625,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>138.9023428740572</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,22 +37856,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121313</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.567533492471</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121313</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
         <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
